--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B8C59-6C1F-EB44-BBD1-4FFEBD414C07}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9585D6C-8556-284C-BE42-3CA137E3EF9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37820" yWindow="-4780" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Scala</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Bad async</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -405,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187BB64-3DB4-B049-BFED-E1D6C01BF917}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +432,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -437,8 +455,11 @@
       <c r="D2">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -451,8 +472,11 @@
       <c r="D3">
         <v>194</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -465,8 +489,11 @@
       <c r="D4">
         <v>354</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -479,8 +506,11 @@
       <c r="D5">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -492,6 +522,145 @@
       </c>
       <c r="D6">
         <v>3810</v>
+      </c>
+      <c r="E6">
+        <v>52934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>MIN(B2:E6)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>B2/$B$8</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="0">C2/$B$8</f>
+        <v>3.8372093023255816</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.8604651162790697</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.9651162790697674</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f t="shared" ref="B10:G13" si="1">B3/$B$8</f>
+        <v>5.1627906976744189</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>8.0232558139534884</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2.2558139534883721</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.9302325581395348</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>42.511627906976742</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4.1162790697674421</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.9302325581395348</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>25.127906976744185</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.2441860465116279</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.9186046511627906</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>868.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>959.98837209302326</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>44.302325581395351</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>615.51162790697674</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9585D6C-8556-284C-BE42-3CA137E3EF9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2888CADB-8543-8349-B6CA-BF5E7A2322BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37820" yWindow="-4780" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
+    <workbookView xWindow="-35040" yWindow="-3420" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Scala</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Simple with local HTTP</t>
+  </si>
+  <si>
+    <t>Simple with 1k from /dev/zero</t>
+  </si>
+  <si>
+    <t>Simple with 1k from regular file</t>
   </si>
 </sst>
 </file>
@@ -414,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187BB64-3DB4-B049-BFED-E1D6C01BF917}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -527,139 +539,244 @@
         <v>52934</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>56377</v>
+      </c>
+      <c r="E7">
+        <v>98325</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8">
+        <v>64679</v>
+      </c>
+      <c r="E8">
+        <v>115767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
         <f>MIN(B2:E6)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f>B2/$B$8</f>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>B2/$B$12</f>
         <v>1</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:G9" si="0">C2/$B$8</f>
+      <c r="C13">
+        <f t="shared" ref="C13:G13" si="0">C2/$B$12</f>
         <v>3.8372093023255816</v>
       </c>
-      <c r="D9">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>1.8604651162790697</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>3.9651162790697674</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <f t="shared" ref="B10:G13" si="1">B3/$B$8</f>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" ref="B14:G14" si="1">B3/$B$12</f>
         <v>5.1627906976744189</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>8.0232558139534884</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>2.2558139534883721</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>3.9302325581395348</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <f t="shared" si="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" ref="B15:G15" si="2">B4/$B$12</f>
         <v>42.511627906976742</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
+      <c r="C15">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
+      <c r="D15">
+        <f t="shared" si="2"/>
         <v>4.1162790697674421</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="E15">
+        <f t="shared" si="2"/>
         <v>3.9302325581395348</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f t="shared" si="1"/>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" ref="B16:G16" si="3">B5/$B$12</f>
         <v>3</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
+      <c r="C16">
+        <f t="shared" si="3"/>
         <v>25.127906976744185</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
+      <c r="D16">
+        <f t="shared" si="3"/>
         <v>2.2441860465116279</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
+      <c r="E16">
+        <f t="shared" si="3"/>
         <v>3.9186046511627906</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <f t="shared" si="1"/>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="4">B6/$B$12</f>
         <v>868.5</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
+      <c r="C17">
+        <f t="shared" si="4"/>
         <v>959.98837209302326</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
+      <c r="D17">
+        <f t="shared" si="4"/>
         <v>44.302325581395351</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+      <c r="E17">
+        <f t="shared" si="4"/>
         <v>615.51162790697674</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" ref="B18:G20" si="5">B7/$B$12</f>
+        <v>655.54651162790697</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>1143.3139534883721</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>752.08139534883719</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>1346.1279069767443</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2888CADB-8543-8349-B6CA-BF5E7A2322BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A5777-6695-CB4A-A1F0-CDEFD41C5CB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35040" yWindow="-3420" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
@@ -78,10 +78,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +434,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,10 +552,10 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>56377</v>
-      </c>
-      <c r="E7">
-        <v>98325</v>
+        <v>350979</v>
+      </c>
+      <c r="C7" s="1">
+        <v>224543</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -555,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>64679</v>
-      </c>
-      <c r="E8">
-        <v>115767</v>
+        <v>467184</v>
+      </c>
+      <c r="C8">
+        <v>363370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,11 +713,11 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" ref="B18:G20" si="5">B7/$B$12</f>
-        <v>655.54651162790697</v>
+        <v>4081.1511627906975</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2610.9651162790697</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
@@ -717,7 +725,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
-        <v>1143.3139534883721</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
@@ -731,11 +739,11 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>752.08139534883719</v>
+        <v>5432.3720930232557</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4225.2325581395353</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
@@ -743,7 +751,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
-        <v>1346.1279069767443</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A5777-6695-CB4A-A1F0-CDEFD41C5CB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A56A89-F38B-814B-A603-49612975C63D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35040" yWindow="-3420" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,6 +557,9 @@
       <c r="C7" s="1">
         <v>224543</v>
       </c>
+      <c r="E7">
+        <v>846494</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -567,6 +570,9 @@
       </c>
       <c r="C8">
         <v>363370</v>
+      </c>
+      <c r="E8">
+        <v>987287</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -725,7 +731,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9842.9534883720935</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
@@ -751,7 +757,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11480.081395348838</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A56A89-F38B-814B-A603-49612975C63D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55932FA3-74D4-3444-A544-8E69F97FE0B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35040" yWindow="-3420" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
+    <workbookView xWindow="-45840" yWindow="-10760" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,10 +552,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>350979</v>
+        <v>772998</v>
       </c>
       <c r="C7" s="1">
         <v>224543</v>
+      </c>
+      <c r="D7">
+        <v>527695</v>
       </c>
       <c r="E7">
         <v>846494</v>
@@ -570,6 +573,9 @@
       </c>
       <c r="C8">
         <v>363370</v>
+      </c>
+      <c r="D8">
+        <v>649561</v>
       </c>
       <c r="E8">
         <v>987287</v>
@@ -719,7 +725,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" ref="B18:G20" si="5">B7/$B$12</f>
-        <v>4081.1511627906975</v>
+        <v>8988.3488372093016</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -727,7 +733,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6135.9883720930229</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
@@ -753,7 +759,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7553.0348837209303</v>
       </c>
       <c r="E19">
         <f t="shared" si="5"/>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55932FA3-74D4-3444-A544-8E69F97FE0B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F74698F-4F28-AE4B-AD86-C7541A91FB1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45840" yWindow="-10760" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
+    <workbookView xWindow="-36640" yWindow="-7080" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,10 @@
     <t>Simple with local HTTP</t>
   </si>
   <si>
-    <t>Simple with 1k from /dev/zero</t>
-  </si>
-  <si>
-    <t>Simple with 1k from regular file</t>
+    <t>Simple with 1M from /dev/zero</t>
+  </si>
+  <si>
+    <t>Simple with 1M from regular file</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>467184</v>
+        <v>910469</v>
       </c>
       <c r="C8">
         <v>363370</v>
@@ -751,7 +751,7 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>5432.3720930232557</v>
+        <v>10586.848837209302</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F74698F-4F28-AE4B-AD86-C7541A91FB1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA502AA-00C9-2E49-955F-C34B1D9A1707}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="-7080" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +585,9 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>4063575</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -781,7 +784,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47250.872093023259</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA502AA-00C9-2E49-955F-C34B1D9A1707}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCF938-815A-014A-8570-E633BEF64208}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="-7080" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Scala</t>
   </si>
@@ -65,13 +65,16 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Simple with local HTTP</t>
-  </si>
-  <si>
     <t>Simple with 1M from /dev/zero</t>
   </si>
   <si>
     <t>Simple with 1M from regular file</t>
+  </si>
+  <si>
+    <t>Simple with lo HTTP</t>
+  </si>
+  <si>
+    <t>Simple with LAN HTTP</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +552,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>772998</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>910469</v>
@@ -583,10 +586,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>4063575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>31063575</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCF938-815A-014A-8570-E633BEF64208}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F9C530-12A3-3B45-94ED-8EC63F5C2FCD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36640" yWindow="-7080" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
+    <workbookView xWindow="-48660" yWindow="-800" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187BB64-3DB4-B049-BFED-E1D6C01BF917}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
-        <f t="shared" ref="B18:G20" si="5">B7/$B$12</f>
+        <f t="shared" ref="B18:G21" si="5">B7/$B$12</f>
         <v>8988.3488372093016</v>
       </c>
       <c r="C18">
@@ -810,6 +810,32 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>361204.36046511628</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCF938-815A-014A-8570-E633BEF64208}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D219CC-3B00-3547-8BB4-7C007D6478D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="-7080" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,6 +591,9 @@
       <c r="C9">
         <v>4063575</v>
       </c>
+      <c r="D9">
+        <v>19074359</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -799,7 +802,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>221794.87209302327</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,13 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D219CC-3B00-3547-8BB4-7C007D6478D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BB678-3834-004E-8182-B27EAA14DD87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36640" yWindow="-7080" windowWidth="28040" windowHeight="17440" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
+    <workbookView xWindow="-46780" yWindow="-11980" windowWidth="37860" windowHeight="23160" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$13:$B$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$13:$D$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$13:$E$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$13:$B$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$13:$D$17</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$13:$E$17</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$13:$B$17</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$13:$D$17</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$13:$E$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$13:$D$17</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$13:$B$17</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$13:$D$17</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$E$13:$E$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$13:$E$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$13:$B$17</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$13:$D$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$13:$E$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$13:$B$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$13:$C$17</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -97,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +168,2199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>No I/O</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scala</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1627906976744189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.511627906976742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8372093023255816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0232558139534884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.127906976744185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>959.98837209302326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Go</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8604651162790697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2558139534883721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1162790697674421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2441860465116279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.302325581395351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Haskell</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9651162790697674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9302325581395348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9302325581395348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9186046511627906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>615.51162790697674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1728661087"/>
+        <c:axId val="1728662783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1728661087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728662783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1728662783"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728661087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>With I/O</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scala</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1627906976744189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.511627906976742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8988.3488372093016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10586.848837209302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221794.87209302327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4651162.7906976743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.8372093023255816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0232558139534884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.127906976744185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>959.98837209302326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2610.9651162790697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4225.2325581395353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47250.872093023259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361204.36046511628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Go</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.8604651162790697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2558139534883721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1162790697674421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2441860465116279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.302325581395351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6135.9883720930229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7553.0348837209303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221794.87209302327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4651162.7906976743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30A7-B041-8FCC-CA4113ADFC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Haskell</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.9651162790697674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9302325581395348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9302325581395348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9186046511627906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>615.51162790697674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9842.9534883720935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11480.081395348838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221794.87209302327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4651162.7906976743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F45-5A41-9C8B-0C01ECA682DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1728661087"/>
+        <c:axId val="1728662783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1728661087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728662783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1728662783"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728661087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE186E17-D89E-1A40-8319-3D6C99D14718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4188397-A8E9-2C47-A3FE-FD792C94D636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187BB64-3DB4-B049-BFED-E1D6C01BF917}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,54 +2780,77 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>772998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>224543</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>527695</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>846494</v>
       </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>910469</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>363370</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>649561</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>987287</v>
       </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>19074359</v>
+      </c>
+      <c r="C9" s="1">
         <v>4063575</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>19074359</v>
       </c>
+      <c r="E9" s="1">
+        <v>19074359</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="C10" s="1">
         <v>31063575</v>
       </c>
+      <c r="D10" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -740,84 +2989,111 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f t="shared" ref="B18:G20" si="5">B7/$B$12</f>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:G21" si="5">B7/$B$12</f>
         <v>8988.3488372093016</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <f t="shared" si="5"/>
         <v>2610.9651162790697</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="5"/>
         <v>6135.9883720930229</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="5"/>
         <v>9842.9534883720935</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="B19" s="1">
         <f t="shared" si="5"/>
         <v>10586.848837209302</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <f t="shared" si="5"/>
         <v>4225.2325581395353</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f t="shared" si="5"/>
         <v>7553.0348837209303</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f t="shared" si="5"/>
         <v>11480.081395348838</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="B20" s="1">
+        <f t="shared" si="5"/>
+        <v>221794.87209302327</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="5"/>
+        <v>47250.872093023259</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="5"/>
+        <v>221794.87209302327</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>221794.87209302327</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
-        <v>47250.872093023259</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>221794.87209302327</v>
-      </c>
-      <c r="E20">
+      <c r="G20" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <f t="shared" si="5"/>
+        <v>4651162.7906976743</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="5"/>
+        <v>361204.36046511628</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>4651162.7906976743</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>4651162.7906976743</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -1,46 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BB678-3834-004E-8182-B27EAA14DD87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693984FF-C597-FC40-9F32-F3DC7FB20911}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46780" yWindow="-11980" windowWidth="37860" windowHeight="23160" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$13:$B$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$13:$D$17</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$13:$E$17</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$13:$B$17</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$13:$D$17</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$13:$E$17</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$13:$B$17</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$13:$D$17</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$13:$E$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$13:$D$17</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$13:$B$17</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$13:$D$17</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$E$13:$E$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$13:$E$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$13:$B$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$13:$D$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$13:$E$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$13:$B$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$13:$C$17</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scala</t>
   </si>
@@ -97,10 +71,13 @@
     <t>Simple with 1M from regular file</t>
   </si>
   <si>
-    <t>Simple with lo HTTP</t>
+    <t>Simple with lo HTTP no latency</t>
   </si>
   <si>
-    <t>Simple with LAN HTTP</t>
+    <t>Latency [ms]</t>
+  </si>
+  <si>
+    <t>Simple with lo HTTP + latency</t>
   </si>
 </sst>
 </file>
@@ -788,10 +765,10 @@
                   <c:v>10586.848837209302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221794.87209302327</c:v>
+                  <c:v>60683.837209302328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4651162.7906976743</c:v>
+                  <c:v>525800.1162790698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +832,7 @@
                   <c:v>47250.872093023259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>361204.36046511628</c:v>
+                  <c:v>512367.15116279072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,7 +896,7 @@
                   <c:v>221794.87209302327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4651162.7906976743</c:v>
+                  <c:v>686911.15116279072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +960,7 @@
                   <c:v>221794.87209302327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4651162.7906976743</c:v>
+                  <c:v>686911.15116279072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2660,15 +2637,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187BB64-3DB4-B049-BFED-E1D6C01BF917}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2819,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>19074359</v>
+        <v>5218810</v>
       </c>
       <c r="C9" s="1">
         <v>4063575</v>
@@ -2835,19 +2812,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>400000000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>31063575</v>
+        <f>B9+(4000000*$B24)</f>
+        <v>45218810</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:E10" si="0">C9+(4000000*$B24)</f>
+        <v>44063575</v>
       </c>
       <c r="D10" s="2">
-        <v>400000000</v>
+        <f t="shared" si="0"/>
+        <v>59074359</v>
       </c>
       <c r="E10" s="2">
-        <v>400000000</v>
+        <f t="shared" si="0"/>
+        <v>59074359</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2864,232 +2845,240 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:G13" si="0">C2/$B$12</f>
+        <f t="shared" ref="C13:G13" si="1">C2/$B$12</f>
         <v>3.8372093023255816</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8604651162790697</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9651162790697674</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14">
-        <f t="shared" ref="B14:G14" si="1">B3/$B$12</f>
+        <f t="shared" ref="B14:G14" si="2">B3/$B$12</f>
         <v>5.1627906976744189</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0232558139534884</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2558139534883721</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9302325581395348</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f t="shared" ref="B15:G15" si="2">B4/$B$12</f>
+        <f t="shared" ref="B15:G15" si="3">B4/$B$12</f>
         <v>42.511627906976742</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1162790697674421</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9302325581395348</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16">
-        <f t="shared" ref="B16:G16" si="3">B5/$B$12</f>
+        <f t="shared" ref="B16:G16" si="4">B5/$B$12</f>
         <v>3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.127906976744185</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2441860465116279</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9186046511627906</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f t="shared" ref="B17:G17" si="4">B6/$B$12</f>
-        <v>868.5</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>959.98837209302326</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
-        <v>44.302325581395351</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>615.51162790697674</v>
-      </c>
-      <c r="F17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <f t="shared" ref="B18:G21" si="5">B7/$B$12</f>
-        <v>8988.3488372093016</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="5">B6/$B$12</f>
+        <v>868.5</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="5"/>
-        <v>2610.9651162790697</v>
-      </c>
-      <c r="D18" s="1">
+        <v>959.98837209302326</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="5"/>
-        <v>6135.9883720930229</v>
-      </c>
-      <c r="E18" s="1">
+        <v>44.302325581395351</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="5"/>
-        <v>9842.9534883720935</v>
-      </c>
-      <c r="F18" s="1">
+        <v>615.51162790697674</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:G21" si="6">B7/$B$12</f>
+        <v>8988.3488372093016</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="6"/>
+        <v>2610.9651162790697</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>6135.9883720930229</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="6"/>
+        <v>9842.9534883720935</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10586.848837209302</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4225.2325581395353</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7553.0348837209303</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11480.081395348838</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>60683.837209302328</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="6"/>
+        <v>47250.872093023259</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
         <v>221794.87209302327</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="5"/>
-        <v>47250.872093023259</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="5"/>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
         <v>221794.87209302327</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="5"/>
-        <v>221794.87209302327</v>
-      </c>
       <c r="F20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
-        <f t="shared" si="5"/>
-        <v>4651162.7906976743</v>
+        <f t="shared" si="6"/>
+        <v>525800.1162790698</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
-        <v>361204.36046511628</v>
+        <f t="shared" si="6"/>
+        <v>512367.15116279072</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
-        <v>4651162.7906976743</v>
+        <f t="shared" si="6"/>
+        <v>686911.15116279072</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="5"/>
-        <v>4651162.7906976743</v>
+        <f t="shared" si="6"/>
+        <v>686911.15116279072</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693984FF-C597-FC40-9F32-F3DC7FB20911}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A414EB0-7E29-7849-AC8E-C79CD17E0BEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46780" yWindow="-11980" windowWidth="37860" windowHeight="23160" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
+    <workbookView xWindow="-49740" yWindow="-12940" windowWidth="43020" windowHeight="25680" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Scala</t>
   </si>
@@ -77,7 +77,34 @@
     <t>Latency [ms]</t>
   </si>
   <si>
-    <t>Simple with lo HTTP + latency</t>
+    <t>Retry rate</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>minute: Drink a glass of water</t>
+  </si>
+  <si>
+    <t>millenia: civilisations</t>
+  </si>
+  <si>
+    <t>seconds: a few heart beats</t>
+  </si>
+  <si>
+    <t>15 minutes: watch The Simpsons</t>
+  </si>
+  <si>
+    <t>1-2 hours: 10-20km commute</t>
+  </si>
+  <si>
+    <t>&gt; 2 hours: StarWars film</t>
+  </si>
+  <si>
+    <t>1 day: Manchester -&gt; NY</t>
+  </si>
+  <si>
+    <t>1 week: holiday</t>
   </si>
 </sst>
 </file>
@@ -100,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +137,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,16 +207,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF73FEFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -245,7 +348,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$17</c:f>
+              <c:f>Sheet1!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -297,7 +400,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$17</c:f>
+              <c:f>Sheet1!$C$14:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -349,7 +452,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$17</c:f>
+              <c:f>Sheet1!$D$14:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -401,7 +504,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$17</c:f>
+              <c:f>Sheet1!$E$14:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -739,10 +842,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$21</c:f>
+              <c:f>Sheet1!$B$14:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -769,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>525800.1162790698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10516002325.581396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,10 +909,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$21</c:f>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.8372093023255816</c:v>
                 </c:pt>
@@ -833,6 +939,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>512367.15116279072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10247343023.255814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,10 +976,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$21</c:f>
+              <c:f>Sheet1!$D$14:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.8604651162790697</c:v>
                 </c:pt>
@@ -893,10 +1002,13 @@
                   <c:v>7553.0348837209303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221794.87209302327</c:v>
+                  <c:v>116279.05813953489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686911.15116279072</c:v>
+                  <c:v>581395.33720930235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11627906744.186047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,10 +1043,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$21</c:f>
+              <c:f>Sheet1!$E$14:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.9651162790697674</c:v>
                 </c:pt>
@@ -957,10 +1069,13 @@
                   <c:v>11480.081395348838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221794.87209302327</c:v>
+                  <c:v>116279.05813953489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686911.15116279072</c:v>
+                  <c:v>581395.33720930235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11627906744.186047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,16 +2382,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2303,16 +2418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,15 +2752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187BB64-3DB4-B049-BFED-E1D6C01BF917}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2802,85 +2921,88 @@
         <v>4063575</v>
       </c>
       <c r="D9" s="1">
-        <v>19074359</v>
+        <v>9999999</v>
       </c>
       <c r="E9" s="1">
-        <v>19074359</v>
+        <v>9999999</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("Simple with lo HTTP + ", B25, " ms latency")</f>
+        <v>Simple with lo HTTP + 10 ms latency</v>
       </c>
       <c r="B10" s="2">
-        <f>B9+(4000000*$B24)</f>
+        <f>B9+($B$27*$B$25)</f>
         <v>45218810</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:E10" si="0">C9+(4000000*$B24)</f>
+        <f t="shared" ref="C10:E10" si="0">C9+($B$27*$B$25)</f>
         <v>44063575</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>59074359</v>
+        <v>49999999</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>59074359</v>
+        <v>49999999</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("HTTP with ", B26, " retry rate + ", B25, "ms latency")</f>
+        <v>HTTP with 0.00001 retry rate + 10ms latency</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B10*$C$26*$D$26</f>
+        <v>904376200000</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:E11" si="1">C10*$C$26*$D$26</f>
+        <v>881271500000</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>999999980000</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>999999980000</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f>MIN(B2:E6)</f>
-        <v>86</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f>B2/$B$12</f>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:G13" si="1">C2/$B$12</f>
-        <v>3.8372093023255816</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>1.8604651162790697</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>3.9651162790697674</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>MIN(B2:E6)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14">
-        <f t="shared" ref="B14:G14" si="2">B3/$B$12</f>
-        <v>5.1627906976744189</v>
+        <f>B2/$B$13</f>
+        <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>8.0232558139534884</v>
+        <f t="shared" ref="C14:G14" si="2">C2/$B$13</f>
+        <v>3.8372093023255816</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>2.2558139534883721</v>
+        <v>1.8604651162790697</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>3.9302325581395348</v>
+        <v>3.9651162790697674</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
@@ -2893,16 +3015,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f t="shared" ref="B15:G15" si="3">B4/$B$12</f>
-        <v>42.511627906976742</v>
+        <f t="shared" ref="B15:G15" si="3">B3/$B$13</f>
+        <v>5.1627906976744189</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>8.0232558139534884</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>4.1162790697674421</v>
+        <v>2.2558139534883721</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
@@ -2919,20 +3041,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16">
-        <f t="shared" ref="B16:G16" si="4">B5/$B$12</f>
-        <v>3</v>
+        <f t="shared" ref="B16:G16" si="4">B4/$B$13</f>
+        <v>42.511627906976742</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>25.127906976744185</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>2.2441860465116279</v>
+        <v>4.1162790697674421</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
-        <v>3.9186046511627906</v>
+        <v>3.9302325581395348</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
@@ -2943,22 +3065,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17">
-        <f t="shared" ref="B17:G17" si="5">B6/$B$12</f>
-        <v>868.5</v>
+        <f t="shared" ref="B17:G17" si="5">B5/$B$13</f>
+        <v>3</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
-        <v>959.98837209302326</v>
+        <v>25.127906976744185</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>44.302325581395351</v>
+        <v>2.2441860465116279</v>
       </c>
       <c r="E17">
         <f t="shared" si="5"/>
-        <v>615.51162790697674</v>
+        <v>3.9186046511627906</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
@@ -2969,120 +3091,574 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <f t="shared" ref="B18:G21" si="6">B7/$B$12</f>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" ref="B18:G18" si="6">B6/$B$13</f>
+        <v>868.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>959.98837209302326</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>44.302325581395351</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>615.51162790697674</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <f>B7/$B$13</f>
         <v>8988.3488372093016</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="6"/>
+      <c r="C19" s="1">
+        <f>C7/$B$13</f>
         <v>2610.9651162790697</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="6"/>
+      <c r="D19" s="1">
+        <f>D7/$B$13</f>
         <v>6135.9883720930229</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="6"/>
+      <c r="E19" s="1">
+        <f>E7/$B$13</f>
         <v>9842.9534883720935</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="6"/>
+      <c r="F19" s="1">
+        <f>F7/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f>G7/$B$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <f t="shared" si="6"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <f>B8/$B$13</f>
         <v>10586.848837209302</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="6"/>
+      <c r="C20" s="1">
+        <f>C8/$B$13</f>
         <v>4225.2325581395353</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="6"/>
+      <c r="D20" s="1">
+        <f>D8/$B$13</f>
         <v>7553.0348837209303</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="6"/>
+      <c r="E20" s="1">
+        <f>E8/$B$13</f>
         <v>11480.081395348838</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="6"/>
+      <c r="F20" s="1">
+        <f>F8/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f>G8/$B$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <f t="shared" si="6"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <f>B9/$B$13</f>
         <v>60683.837209302328</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="6"/>
+      <c r="C21" s="1">
+        <f>C9/$B$13</f>
         <v>47250.872093023259</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>221794.87209302327</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="6"/>
-        <v>221794.87209302327</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="6"/>
+      <c r="D21" s="1">
+        <f>D9/$B$13</f>
+        <v>116279.05813953489</v>
+      </c>
+      <c r="E21" s="1">
+        <f>E9/$B$13</f>
+        <v>116279.05813953489</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F9/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f>G9/$B$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <f t="shared" si="6"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <f>B10/$B$13</f>
         <v>525800.1162790698</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="6"/>
+      <c r="C22" s="1">
+        <f>C10/$B$13</f>
         <v>512367.15116279072</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>686911.15116279072</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="6"/>
-        <v>686911.15116279072</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="6"/>
+      <c r="D22" s="1">
+        <f>D10/$B$13</f>
+        <v>581395.33720930235</v>
+      </c>
+      <c r="E22" s="1">
+        <f>E10/$B$13</f>
+        <v>581395.33720930235</v>
+      </c>
+      <c r="F22" s="1">
+        <f>F10/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f>G10/$B$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f>B11/$B$13</f>
+        <v>10516002325.581396</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C11/$B$13</f>
+        <v>10247343023.255814</v>
+      </c>
+      <c r="D23" s="1">
+        <f>D11/$B$13</f>
+        <v>11627906744.186047</v>
+      </c>
+      <c r="E23" s="1">
+        <f>E11/$B$13</f>
+        <v>11627906744.186047</v>
+      </c>
+      <c r="F23" s="1">
+        <f>F11/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f>G11/$B$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C26">
+        <f>B27*B26</f>
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="str">
+        <f>B1</f>
+        <v>Scala</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:G30" si="7">C1</f>
+        <v>C++</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="7"/>
+        <v>Go</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="7"/>
+        <v>Haskell</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="7"/>
+        <v>JS</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="7"/>
+        <v>Python</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>A2</f>
+        <v>Simple</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B14/K31</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:G35" si="8">C14</f>
+        <v>3.8372093023255816</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="8"/>
+        <v>1.8604651162790697</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="8"/>
+        <v>3.9651162790697674</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:A40" si="9">A3</f>
+        <v>1 Ex</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B15</f>
+        <v>5.1627906976744189</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="8"/>
+        <v>8.0232558139534884</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="8"/>
+        <v>2.2558139534883721</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="8"/>
+        <v>3.9302325581395348</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="9"/>
+        <v>All Ex</v>
+      </c>
+      <c r="B33" s="8">
+        <f>B16/K32</f>
+        <v>0.70852713178294568</v>
+      </c>
+      <c r="C33" s="8">
+        <f>C16/K32</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="8"/>
+        <v>4.1162790697674421</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="8"/>
+        <v>3.9302325581395348</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <f>K32*15</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="9"/>
+        <v>Enterprise</v>
+      </c>
+      <c r="B34" s="7">
+        <f>B17</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <f>C17/60</f>
+        <v>0.41879844961240309</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="8"/>
+        <v>2.2441860465116279</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="8"/>
+        <v>3.9186046511627906</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="9"/>
+        <v>Bad async</v>
+      </c>
+      <c r="B35" s="19">
+        <f>B18/K33</f>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C35" s="19">
+        <f>C18/K33</f>
+        <v>1.0666537467700259</v>
+      </c>
+      <c r="D35" s="8">
+        <f>D18/K32</f>
+        <v>0.7383720930232559</v>
+      </c>
+      <c r="E35" s="19">
+        <f>E18/K33</f>
+        <v>0.68390180878552975</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="9"/>
+        <v>Simple with 1M from /dev/zero</v>
+      </c>
+      <c r="B36" s="10">
+        <f>B19/K35</f>
+        <v>1.1235436046511627</v>
+      </c>
+      <c r="C36" s="9">
+        <f>C19/K34</f>
+        <v>0.72526808785529717</v>
+      </c>
+      <c r="D36" s="9">
+        <f>D19/K34</f>
+        <v>1.7044412144702841</v>
+      </c>
+      <c r="E36" s="10">
+        <f>E19/K35</f>
+        <v>1.2303691860465116</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="B36:G36" si="10">F19</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <f>K34*18</f>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="9"/>
+        <v>Simple with 1M from regular file</v>
+      </c>
+      <c r="B37" s="10">
+        <f>B20/K35</f>
+        <v>1.3233561046511626</v>
+      </c>
+      <c r="C37" s="9">
+        <f>C20/K34</f>
+        <v>1.1736757105943154</v>
+      </c>
+      <c r="D37" s="10">
+        <f>D20/K35</f>
+        <v>0.94412936046511631</v>
+      </c>
+      <c r="E37" s="10">
+        <f>E20/K35</f>
+        <v>1.4350101744186048</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" ref="B37:G37" si="11">F20</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37">
+        <f>K36*8</f>
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="9"/>
+        <v>Simple with lo HTTP no latency</v>
+      </c>
+      <c r="B38" s="14">
+        <f>B21/K36</f>
+        <v>0.93647896927935692</v>
+      </c>
+      <c r="C38" s="14">
+        <f>C21/K36</f>
+        <v>0.7291801248923343</v>
+      </c>
+      <c r="D38" s="14">
+        <f>D21/K36</f>
+        <v>1.7944299095607235</v>
+      </c>
+      <c r="E38" s="14">
+        <f>E21/K36</f>
+        <v>1.7944299095607235</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" ref="B38:G38" si="12">F21</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <f>10000000000</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="9"/>
+        <v>Simple with lo HTTP + 10 ms latency</v>
+      </c>
+      <c r="B39" s="13">
+        <f>B22/K37</f>
+        <v>1.0142749156617858</v>
+      </c>
+      <c r="C39" s="13">
+        <f>C22/K37</f>
+        <v>0.98836256011340806</v>
+      </c>
+      <c r="D39" s="13">
+        <f>D22/K37</f>
+        <v>1.1215187831969566</v>
+      </c>
+      <c r="E39" s="13">
+        <f>E22/K37</f>
+        <v>1.1215187831969566</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" ref="B39:G39" si="13">F22</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>A11</f>
+        <v>HTTP with 0.00001 retry rate + 10ms latency</v>
+      </c>
+      <c r="B40" s="16">
+        <f>B23/K38</f>
+        <v>1.0516002325581395</v>
+      </c>
+      <c r="C40" s="16">
+        <f>C23/K38</f>
+        <v>1.0247343023255813</v>
+      </c>
+      <c r="D40" s="16">
+        <f>D23/K38</f>
+        <v>1.1627906744186047</v>
+      </c>
+      <c r="E40" s="16">
+        <f>E23/K38</f>
+        <v>1.1627906744186047</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" ref="B40:G40" si="14">F23</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/integrating-microservices/txt/perf.xlsx
+++ b/integrating-microservices/txt/perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmachacek/Sandbox/papers/integrating-microservices/txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A414EB0-7E29-7849-AC8E-C79CD17E0BEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98106CF3-C843-B14A-A25A-9E1092845BBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-49740" yWindow="-12940" windowWidth="43020" windowHeight="25680" xr2:uid="{6F0D125F-4C1B-1246-ACF2-E34683644E26}"/>
   </bookViews>
@@ -2755,7 +2755,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3119,131 +3119,131 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
-        <f>B7/$B$13</f>
+        <f t="shared" ref="B19:G23" si="7">B7/$B$13</f>
         <v>8988.3488372093016</v>
       </c>
       <c r="C19" s="1">
-        <f>C7/$B$13</f>
+        <f t="shared" si="7"/>
         <v>2610.9651162790697</v>
       </c>
       <c r="D19" s="1">
-        <f>D7/$B$13</f>
+        <f t="shared" si="7"/>
         <v>6135.9883720930229</v>
       </c>
       <c r="E19" s="1">
-        <f>E7/$B$13</f>
+        <f t="shared" si="7"/>
         <v>9842.9534883720935</v>
       </c>
       <c r="F19" s="1">
-        <f>F7/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f>G7/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
-        <f>B8/$B$13</f>
+        <f t="shared" si="7"/>
         <v>10586.848837209302</v>
       </c>
       <c r="C20" s="1">
-        <f>C8/$B$13</f>
+        <f t="shared" si="7"/>
         <v>4225.2325581395353</v>
       </c>
       <c r="D20" s="1">
-        <f>D8/$B$13</f>
+        <f t="shared" si="7"/>
         <v>7553.0348837209303</v>
       </c>
       <c r="E20" s="1">
-        <f>E8/$B$13</f>
+        <f t="shared" si="7"/>
         <v>11480.081395348838</v>
       </c>
       <c r="F20" s="1">
-        <f>F8/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f>G8/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
-        <f>B9/$B$13</f>
+        <f t="shared" si="7"/>
         <v>60683.837209302328</v>
       </c>
       <c r="C21" s="1">
-        <f>C9/$B$13</f>
+        <f t="shared" si="7"/>
         <v>47250.872093023259</v>
       </c>
       <c r="D21" s="1">
-        <f>D9/$B$13</f>
+        <f t="shared" si="7"/>
         <v>116279.05813953489</v>
       </c>
       <c r="E21" s="1">
-        <f>E9/$B$13</f>
+        <f t="shared" si="7"/>
         <v>116279.05813953489</v>
       </c>
       <c r="F21" s="1">
-        <f>F9/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>G9/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
-        <f>B10/$B$13</f>
+        <f t="shared" si="7"/>
         <v>525800.1162790698</v>
       </c>
       <c r="C22" s="1">
-        <f>C10/$B$13</f>
+        <f t="shared" si="7"/>
         <v>512367.15116279072</v>
       </c>
       <c r="D22" s="1">
-        <f>D10/$B$13</f>
+        <f t="shared" si="7"/>
         <v>581395.33720930235</v>
       </c>
       <c r="E22" s="1">
-        <f>E10/$B$13</f>
+        <f t="shared" si="7"/>
         <v>581395.33720930235</v>
       </c>
       <c r="F22" s="1">
-        <f>F10/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f>G10/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <f>B11/$B$13</f>
+        <f t="shared" si="7"/>
         <v>10516002325.581396</v>
       </c>
       <c r="C23" s="1">
-        <f>C11/$B$13</f>
+        <f t="shared" si="7"/>
         <v>10247343023.255814</v>
       </c>
       <c r="D23" s="1">
-        <f>D11/$B$13</f>
+        <f t="shared" si="7"/>
         <v>11627906744.186047</v>
       </c>
       <c r="E23" s="1">
-        <f>E11/$B$13</f>
+        <f t="shared" si="7"/>
         <v>11627906744.186047</v>
       </c>
       <c r="F23" s="1">
-        <f>F11/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>G11/$B$13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3284,23 +3284,23 @@
         <v>Scala</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:G30" si="7">C1</f>
+        <f t="shared" ref="C30:G30" si="8">C1</f>
         <v>C++</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Go</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Haskell</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>JS</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Python</v>
       </c>
     </row>
@@ -3314,23 +3314,23 @@
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:G35" si="8">C14</f>
+        <f t="shared" ref="C31:G35" si="9">C14</f>
         <v>3.8372093023255816</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8604651162790697</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9651162790697674</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -3342,7 +3342,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f t="shared" ref="A32:A40" si="9">A3</f>
+        <f t="shared" ref="A32:A39" si="10">A3</f>
         <v>1 Ex</v>
       </c>
       <c r="B32" s="7">
@@ -3350,23 +3350,23 @@
         <v>5.1627906976744189</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0232558139534884</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2558139534883721</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9302325581395348</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -3378,7 +3378,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>All Ex</v>
       </c>
       <c r="B33" s="8">
@@ -3390,19 +3390,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1162790697674421</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9302325581395348</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J33" s="18" t="s">
@@ -3415,7 +3415,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Enterprise</v>
       </c>
       <c r="B34" s="7">
@@ -3427,19 +3427,19 @@
         <v>0.41879844961240309</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2441860465116279</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9186046511627906</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J34" s="5" t="s">
@@ -3451,7 +3451,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Bad async</v>
       </c>
       <c r="B35" s="19">
@@ -3471,11 +3471,11 @@
         <v>0.68390180878552975</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J35" s="6" t="s">
@@ -3487,7 +3487,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Simple with 1M from /dev/zero</v>
       </c>
       <c r="B36" s="10">
@@ -3507,11 +3507,11 @@
         <v>1.2303691860465116</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" ref="B36:G36" si="10">F19</f>
+        <f t="shared" ref="F36:G36" si="11">F19</f>
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J36" s="15" t="s">
@@ -3524,7 +3524,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Simple with 1M from regular file</v>
       </c>
       <c r="B37" s="10">
@@ -3544,11 +3544,11 @@
         <v>1.4350101744186048</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="B37:G37" si="11">F20</f>
+        <f t="shared" ref="F37:G37" si="12">F20</f>
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J37" s="12" t="s">
@@ -3561,7 +3561,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Simple with lo HTTP no latency</v>
       </c>
       <c r="B38" s="14">
@@ -3581,11 +3581,11 @@
         <v>1.7944299095607235</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" ref="B38:G38" si="12">F21</f>
+        <f t="shared" ref="F38:G38" si="13">F21</f>
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J38" s="17" t="s">
@@ -3598,7 +3598,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Simple with lo HTTP + 10 ms latency</v>
       </c>
       <c r="B39" s="13">
@@ -3618,11 +3618,11 @@
         <v>1.1215187831969566</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" ref="B39:G39" si="13">F22</f>
+        <f t="shared" ref="F39:G39" si="14">F22</f>
         <v>0</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3648,11 +3648,11 @@
         <v>1.1627906744186047</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" ref="B40:G40" si="14">F23</f>
+        <f t="shared" ref="F40:G40" si="15">F23</f>
         <v>0</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
